--- a/proximity based zombies calibration.xlsx
+++ b/proximity based zombies calibration.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elona\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elona\Documents\GitHub\pz-prozimity-based-zombie-spawning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CBFE838-A53C-4CE8-8EBE-554118F08298}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F4C275-DA17-4A8D-9795-FD65F5CDE59E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7DD56AF-E90D-4E7E-8CB2-08525303680A}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A7DD56AF-E90D-4E7E-8CB2-08525303680A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -246,34 +246,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>8</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>44</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>92</c:v>
+                  <c:v>252</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>188</c:v>
+                  <c:v>508</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>380</c:v>
+                  <c:v>1020</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>764</c:v>
+                  <c:v>2044</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1532</c:v>
+                  <c:v>4092</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3068</c:v>
+                  <c:v>8188</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6140</c:v>
+                  <c:v>16380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1369,7 +1369,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
@@ -1405,15 +1405,15 @@
       </c>
       <c r="E2">
         <f>MAX(0, $B$4+$B$1*$B$2^(1+D2/24))</f>
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F2">
         <f>MIN(MAX(_xlfn.CEILING.MATH(E2/24),0),50)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G2">
         <f>F2*24</f>
-        <v>24</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
@@ -1431,15 +1431,15 @@
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E21" si="0">MAX(0, $B$4+$B$1*$B$2^(1+D3/24))</f>
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F21" si="1">MIN(MAX(_xlfn.CEILING.MATH(E3/24),0),50)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G21" si="2">F3*24</f>
-        <v>24</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -1457,15 +1457,15 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>44</v>
+        <v>124</v>
       </c>
       <c r="F4">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G4">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
@@ -1477,15 +1477,15 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>92</v>
+        <v>252</v>
       </c>
       <c r="F5">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <f t="shared" si="2"/>
-        <v>96</v>
+        <v>264</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -1497,15 +1497,15 @@
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>188</v>
+        <v>508</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="G6">
         <f t="shared" si="2"/>
-        <v>192</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1517,15 +1517,15 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>380</v>
+        <v>1020</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>43</v>
       </c>
       <c r="G7">
         <f t="shared" si="2"/>
-        <v>384</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -1537,15 +1537,15 @@
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>764</v>
+        <v>2044</v>
       </c>
       <c r="F8">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="G8">
         <f t="shared" si="2"/>
-        <v>768</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
-        <v>1532</v>
+        <v>4092</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
-        <v>3068</v>
+        <v>8188</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
@@ -1597,7 +1597,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
-        <v>6140</v>
+        <v>16380</v>
       </c>
       <c r="F11">
         <f t="shared" si="1"/>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
-        <v>12284</v>
+        <v>32764</v>
       </c>
       <c r="F12">
         <f t="shared" si="1"/>
@@ -1637,7 +1637,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>24572</v>
+        <v>65532</v>
       </c>
       <c r="F13">
         <f t="shared" si="1"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>49148</v>
+        <v>131068</v>
       </c>
       <c r="F14">
         <f t="shared" si="1"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="0"/>
-        <v>98300</v>
+        <v>262140</v>
       </c>
       <c r="F15">
         <f t="shared" si="1"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="0"/>
-        <v>196604</v>
+        <v>524284</v>
       </c>
       <c r="F16">
         <f t="shared" si="1"/>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="0"/>
-        <v>393212</v>
+        <v>1048572</v>
       </c>
       <c r="F17">
         <f t="shared" si="1"/>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="0"/>
-        <v>786428</v>
+        <v>2097148</v>
       </c>
       <c r="F18">
         <f t="shared" si="1"/>
@@ -1757,7 +1757,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>1572860</v>
+        <v>4194300</v>
       </c>
       <c r="F19">
         <f t="shared" si="1"/>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>3145724</v>
+        <v>8388604</v>
       </c>
       <c r="F20">
         <f t="shared" si="1"/>
@@ -1797,7 +1797,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="0"/>
-        <v>6291452</v>
+        <v>16777212</v>
       </c>
       <c r="F21">
         <f t="shared" si="1"/>
